--- a/doc/Study-20171129.xlsx
+++ b/doc/Study-20171129.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ResponseBody, @ResponseEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +162,22 @@
   </si>
   <si>
     <t>keytool -genkey -alias tomcat -keyalg RSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.slipp.net/wiki/pages/viewpage.action?pageId=15138926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wonwoo.ml/index.php/post/category/web/spring-boot/page/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ddakker.tistory.com/338?category=444298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/PostView.nhn?blogId=wizardkyn&amp;logNo=220647117154&amp;proxyReferer=https%3A%2F%2Fwww.google.co.kr%2F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -836,4 +853,46 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Study-20171129.xlsx
+++ b/doc/Study-20171129.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ResponseBody, @ResponseEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t>https://m.blog.naver.com/PostView.nhn?blogId=wizardkyn&amp;logNo=220647117154&amp;proxyReferer=https%3A%2F%2Fwww.google.co.kr%2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Component
+@Scope(value="session",proxyMode=ScopedProxyMode.TARGET_CLASS)
+public class Melong {
+ String level;
+ String access;
+ public String getLevel() {
+  return level;
+ }
+ public void setLevel(String level) {
+  this.level = level;
+ }
+ public String getAccess() {
+  return access;
+ }
+ public void setAccess(String access) {
+  this.access = access;
+ }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억안남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -830,9 +854,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+    <row r="10" spans="3:5" ht="205.2" x14ac:dyDescent="0.4">
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C11" s="5"/>
@@ -859,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/doc/Study-20171129.xlsx
+++ b/doc/Study-20171129.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ResponseBody, @ResponseEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,12 +205,165 @@
     <t>기억안남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>http://www.baeldung.com/spring-channel-security-https</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http to https</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthenticationEntryPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthenticationSuccessHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인이 성공했을때 부가 작업 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">http://localhost:8443/restful/login.do -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">localhost:8443/restful/login.do -&gt;
+login -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>localhost:8443/restful/main.do</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">http://localhost:8080/restful/main.do -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>localhost:8443/restful/login.do -&gt; 
+login -&gt; http://localhost:8080/restful/main.do</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://localhost:8443/restful/login.do -&gt; https://localhost:8443/restful/login.do -&gt;
+login -&gt; http://localhost:8080/restful/ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>404 not found</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yakolla.tistory.com/49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.naver.com/PostView.nhn?blogId=jadin1&amp;logNo=70118997845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 후 자동 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.naver.com/PostView.nhn?blogId=kimnx9006&amp;logNo=220638156019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널요청 가로채기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +404,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -291,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +486,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -795,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -885,32 +1050,64 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:C5"/>
+  <dimension ref="C2:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C5" s="10" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +1117,104 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="112.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/Study-20171129.xlsx
+++ b/doc/Study-20171129.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>ResponseBody, @ResponseEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +356,94 @@
   </si>
   <si>
     <t>채널요청 가로채기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache httpd mod_jk JK Status Manager 이용한 무중단 배포 출처: http://ddakker.tistory.com/356?category=137098 [ddakker님의 블로그]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ddakker.tistory.com/322?category=444298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ddakker.tistory.com/318?category=444298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">.properties를 xml로 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.naver.com/PostView.nhn?blogId=wizardkyn&amp;logNo=220653296283&amp;parentCategoryNo=1&amp;categoryNo=&amp;viewDate=&amp;isShowPopularPosts=true&amp;from=search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.joinc.co.kr/w/man/12/oAuth2/Google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google Oauth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Inet4Address.getLocalHost().getHostAddress() </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://millky.com/@origoni/post/1170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring social</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/PostView.nhn?blogId=wizardkyn&amp;logNo=220670022848&amp;proxyReferer=https%3A%2F%2Fwww.google.co.kr%2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven version : https://github.com/wizardkyn/BootSocial.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wonwoo.ml/index.php/post/category/web/spring-boot/page/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lunal.tistory.com/entry/spring-mybatis-%ED%8A%B8%EB%9E%9C%EC%9E%AD%EC%85%98-%EC%84%A4%EC%A0%95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot oauth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oauth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://millky.com/@origoni/post/1155?language=ko_kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot blog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,35 +1138,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K10"/>
+  <dimension ref="C2:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
@@ -1086,7 +1174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
@@ -1094,7 +1182,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C9" s="10" t="s">
         <v>39</v>
       </c>
@@ -1102,12 +1190,115 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K10" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C12" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1121,6 +1312,18 @@
     <hyperlink ref="C8" r:id="rId6"/>
     <hyperlink ref="C9" r:id="rId7"/>
     <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C20" r:id="rId13"/>
+    <hyperlink ref="C21" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C25" r:id="rId17"/>
+    <hyperlink ref="C27" r:id="rId18"/>
+    <hyperlink ref="C28" r:id="rId19"/>
+    <hyperlink ref="C29" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Study-20171129.xlsx
+++ b/doc/Study-20171129.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>ResponseBody, @ResponseEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +445,30 @@
   </si>
   <si>
     <t>spring boot blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wagunblog.com/wp/?p=1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facebook oauth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GET http://localhost:8080/auth/facebook?scope=public_profile%2Cemail </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET https://www.facebook.com/v2.8/dialog/oauth?client_id=140583499935067&amp;response_type=code&amp;redirect_uri=http%3A%2F%2Flocalhost%3A8080%2Fauth%2Ffacebook&amp;scope=public_profile%2Cemail&amp;state=9d0bb56f-515f-416e-a5f2-7be5cfa79538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190c90c18907065aab62f46caef6cfa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1482180898560754</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +602,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1138,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:T29"/>
+  <dimension ref="C2:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1299,6 +1327,14 @@
       </c>
       <c r="Q29" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1324,6 +1360,7 @@
     <hyperlink ref="C27" r:id="rId18"/>
     <hyperlink ref="C28" r:id="rId19"/>
     <hyperlink ref="C29" r:id="rId20"/>
+    <hyperlink ref="C30" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1420,4 +1457,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C5" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>